--- a/temp.xlsx
+++ b/temp.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="177">
   <si>
     <t>firstnameid</t>
   </si>
@@ -462,6 +462,96 @@
   </si>
   <si>
     <t>Hitzlsperger</t>
+  </si>
+  <si>
+    <t>Jos</t>
+  </si>
+  <si>
+    <t>Hooiveld</t>
+  </si>
+  <si>
+    <t>Gael</t>
+  </si>
+  <si>
+    <t>Givet</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Wilkinson</t>
+  </si>
+  <si>
+    <t>Clint</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Walters</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Odemwingie</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Michu</t>
+  </si>
+  <si>
+    <t>Damien</t>
+  </si>
+  <si>
+    <t>Delaney</t>
+  </si>
+  <si>
+    <t>Kagisho</t>
+  </si>
+  <si>
+    <t>Dikgacoi</t>
+  </si>
+  <si>
+    <t>Mile</t>
+  </si>
+  <si>
+    <t>Jedinak</t>
+  </si>
+  <si>
+    <t>Sulley</t>
+  </si>
+  <si>
+    <t>Muntari</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Olsson</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Lugano</t>
   </si>
 </sst>
 </file>
@@ -780,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT3"/>
+  <dimension ref="A1:DT18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1905,6 +1995,5616 @@
         <v>0.0</v>
       </c>
       <c r="DT3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>146287.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>242995.0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>300278.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>145727.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>242946.0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>300279.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23654.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23654.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23654.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>145514.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>242596.0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>300280.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29611.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29611.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29611.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>146759.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>242479.0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>300281.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11718.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11718.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11718.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>144641.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>242052.0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>300282.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11589.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11589.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11589.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>146140.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>242451.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>300283.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29320.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29320.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29320.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>146438.0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>242000.0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>300284.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>145641.0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>242382.0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>300285.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>147351.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>242118.0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>300286.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6833.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6833.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6833.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>145646.0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>241612.0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>300287.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>146869.0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>241611.0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>300288.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>146756.0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>241743.0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>300289.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21347.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>146780.0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>241377.0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>300290.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21401.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21401.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21401.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>146244.0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>241184.0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>300291.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17088.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17088.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17088.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>145386.0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>241095.0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>159717.0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>300292.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT18" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1916,7 +7616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,6 +7667,231 @@
       </c>
       <c r="E3" t="n">
         <v>300277.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="n">
+        <v>300278.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="n">
+        <v>300279.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="n">
+        <v>300280.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="n">
+        <v>300281.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="n">
+        <v>300282.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="n">
+        <v>300283.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="n">
+        <v>300284.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="n">
+        <v>300285.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="n">
+        <v>300286.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="n">
+        <v>300287.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="n">
+        <v>300288.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="n">
+        <v>300289.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" t="n">
+        <v>300290.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="n">
+        <v>300291.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="n">
+        <v>300292.0</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +7902,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,6 +8058,756 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22295.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>300278.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22296.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>300279.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22297.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>300280.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22298.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>300281.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22299.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>300282.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22300.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>300283.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22301.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>300284.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22302.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>300285.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22303.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>300286.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22304.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>300287.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22305.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>300288.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22306.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>300289.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22307.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>300290.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22308.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>300291.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22309.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>300292.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\draw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="1" r:id="rId1"/>
@@ -455,8 +450,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -547,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,14 +762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1154,14 +1150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1185,14 +1181,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -1240,6 +1238,5356 @@
       </c>
       <c r="P1" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>22913</v>
+      </c>
+      <c r="H2">
+        <v>113316</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>300159</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>22914</v>
+      </c>
+      <c r="H3">
+        <v>113316</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>300607</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>22915</v>
+      </c>
+      <c r="H4">
+        <v>113316</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>300033</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>22916</v>
+      </c>
+      <c r="H5">
+        <v>113316</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>300555</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>22917</v>
+      </c>
+      <c r="H6">
+        <v>113316</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>300516</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>22918</v>
+      </c>
+      <c r="H7">
+        <v>113316</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>300144</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22919.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>300066.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22920.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>300154.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22921.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>301010.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22922.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>300070.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22923.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>300393.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22924.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>300516.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22925.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>300035.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22926.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>300391.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22927.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>113318.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>300392.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22928.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>300066.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22929.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>300153.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22930.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>300154.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22931.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>300069.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22932.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>300113.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22933.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>150516.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22934.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>300076.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22935.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>121944.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22936.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>113320.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>300119.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22937.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>301023.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>22938.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>183907.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>22939.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>300069.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>22940.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>300081.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22941.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>121944.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22942.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>156616.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22943.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>300076.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22944.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>189596.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22944.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>113321.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>300214.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>22945.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>113321.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>300112.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>22946.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>113321.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>300148.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>22947.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>113333.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>300092.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>22948.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>113333.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>178603.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>22949.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>113333.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>189358.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>22950.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>113333.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>192318.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22951.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>113333.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>300067.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>22952.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>113333.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>188545.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22953.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>300092.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>22954.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>178603.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>22955.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>188802.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>22956.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>183556.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>22957.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>173771.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>22958.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>164994.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>22959.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>189358.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>22960.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>300067.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22961.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>177458.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>22962.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>170797.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>22963.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>113333.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>300099.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>22964.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>301023.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22965.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>300034.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>22966.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>300299.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>22967.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>300145.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>22968.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>300297.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>22969.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>300119.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>22970.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>300047.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>22971.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>113334.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>300168.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>22972.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>113336.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>300416.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>22973.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>113336.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>121937.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>22974.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>113336.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>300009.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>22975.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>113336.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>300594.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>22976.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>113336.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>181786.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>22977.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>113336.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>181872.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>22978.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>113336.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>182521.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>22979.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>300317.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>22980.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>167431.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>22981.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>300130.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>22982.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>300393.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22983.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>300165.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>22984.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>300107.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>22985.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>300024.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>22986.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>176635.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>22987.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>300203.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>22988.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>300316.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>22989.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>113337.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>300119.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>22990.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>300402.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>22991.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>167495.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>22992.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>184477.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>22993.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>139313.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>22994.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>300313.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>22995.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>159171.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>22996.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>158372.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>22997.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>300322.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>22998.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>173909.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>22999.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>148803.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>23000.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>301062.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>23001.0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>300324.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>23002.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>301075.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>23003.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>300105.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>23004.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>300053.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>23005.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>172879.0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>23006.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>301049.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>23007.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>300028.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>23008.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>176635.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>23009.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>25420.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>23010.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>300017.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>23011.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>300341.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>23012.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>300312.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>23013.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>158625.0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>23014.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>300100.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>23015.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>300396.0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>23016.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>300013.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>23017.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>188350.0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>23018.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>183574.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
